--- a/Appendix-B/Sample data/p5.xlsx
+++ b/Appendix-B/Sample data/p5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e836c76a701411/WS 24-25/Participants data/Individual dataset/Individual dataset - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97e836c76a701411/WS 24-25/Appendix/Appendix-B/Sample data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{443BCDC9-FD52-42C9-9EFC-B91AA6C73D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5257DFBB-20A8-47AA-9304-80F472572DC9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C4D166-67EF-40BB-97DC-6D1A4C8FDCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Transaktionen" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaktionen!$A$1:$H$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaktionen!$A$1:$F$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,23 +28,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="179">
-  <si>
-    <t>[NULL]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="178">
+  <si>
+    <t>EDEKA Nordbayern-Sachsen-Thüringen</t>
   </si>
   <si>
     <t>2024-07-22-18.01.49.000000</t>
   </si>
   <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
     <t>TRANSAKTIONSDATUM</t>
   </si>
   <si>
     <t>ARTIKELCODE</t>
   </si>
   <si>
-    <t>ARTIKELNUMMER</t>
-  </si>
-  <si>
     <t>ARTIKELBESCHREIBUNG</t>
   </si>
   <si>
@@ -54,10 +54,7 @@
     <t>INCENTIVIERTER_UMSATZ</t>
   </si>
   <si>
-    <t>SKU_DISCOUNTABLE_VALUE</t>
-  </si>
-  <si>
-    <t>STEUERSATZ</t>
+    <t>Marktkauf Nordbayern-Sachsen-Thüringen</t>
   </si>
   <si>
     <t>2024-08-02-17.50.53.000000</t>
@@ -884,27 +881,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A4E82-583F-47AB-86A1-901052440CCE}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -919,5215 +916,4009 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4000405001868</v>
       </c>
       <c r="C2" s="2">
         <v>4000405001868</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>329</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3272770015653</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>3272770015653</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>249</v>
       </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4001724045588</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>4001724045588</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>447</v>
       </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4311501010037</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>4311501010037</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>218</v>
       </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4000405005026</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>4000405005026</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>329</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
         <v>4260136130460</v>
       </c>
-      <c r="C7" s="2">
-        <v>4010063057770</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>249</v>
       </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5202390030888</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>5202390030888</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>249</v>
       </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4311527582808</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>4311527582808</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4045992040302</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>4045992040302</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>329</v>
       </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4066600103448</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>4066600103448</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>170</v>
       </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>5411188138464</v>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>5411188138464</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>249</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
         <v>4023184200161</v>
       </c>
-      <c r="C13" s="2">
-        <v>4019066090999</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>299</v>
       </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4311532352885</v>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>4311532352885</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>149</v>
       </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4311501016138</v>
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>4311501016138</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>199</v>
       </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4260380665077</v>
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>4260380665077</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>222</v>
       </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5000112547412</v>
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>5000112547412</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>119</v>
       </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4000522105210</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>4000522105210</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>169</v>
       </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4009249002437</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>4009249002437</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>229</v>
       </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2606</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>2606</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>79</v>
       </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4102560081515</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>4102560081515</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>78</v>
       </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4000405005316</v>
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <v>4000405005316</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>159</v>
       </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4311501766088</v>
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="2">
         <v>4311501766088</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>189</v>
       </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2">
-        <v>8719200233539</v>
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="2">
         <v>8719200233539</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>179</v>
       </c>
-      <c r="G24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2308</v>
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="2">
         <v>2308</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4000405004593</v>
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <v>4000405004593</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>159</v>
       </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4260444961268</v>
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="2">
         <v>4260444961268</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <v>299</v>
       </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2">
-        <v>90433627</v>
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="2">
         <v>90433627</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>396</v>
       </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8710438035636</v>
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="2">
         <v>8710438035636</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <v>469</v>
       </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2">
-        <v>5000159548519</v>
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="2">
         <v>5000159548519</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30">
         <v>329</v>
       </c>
-      <c r="G30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4101540710605</v>
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="2">
         <v>4101540710605</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>279</v>
       </c>
-      <c r="G31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4311501708941</v>
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>4311501708941</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32">
         <v>159</v>
       </c>
-      <c r="G32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4311501796092</v>
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
       </c>
       <c r="C33" s="2">
         <v>4311501796092</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <v>399</v>
       </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2001</v>
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="2">
         <v>2001</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>283</v>
       </c>
-      <c r="G34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2">
-        <v>4000512463719</v>
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <v>4000512463719</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <v>119</v>
       </c>
-      <c r="G35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4000405002070</v>
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="2">
         <v>4000405002070</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>269</v>
       </c>
-      <c r="G36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2">
-        <v>4311501601693</v>
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>4311501601693</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>316</v>
       </c>
-      <c r="G37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4101540710612</v>
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="2">
         <v>4101540710612</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>279</v>
       </c>
-      <c r="G38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4045800202250</v>
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
       </c>
       <c r="C39" s="2">
         <v>4045800202250</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>189</v>
       </c>
-      <c r="G39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4311501072851</v>
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
       </c>
       <c r="C40" s="2">
         <v>4311501072851</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>198</v>
       </c>
-      <c r="G40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4000512463429</v>
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>4000512463429</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>119</v>
       </c>
-      <c r="G41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3663555003789</v>
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
       </c>
       <c r="C42" s="2">
         <v>3663555003789</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>699</v>
       </c>
-      <c r="G42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2">
-        <v>5029053575193</v>
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
       </c>
       <c r="C43" s="2">
         <v>5029053575193</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>165</v>
       </c>
-      <c r="G43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4311501046319</v>
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
       </c>
       <c r="C44" s="2">
         <v>4311501046319</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>159</v>
       </c>
-      <c r="G44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4311527834815</v>
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="2">
         <v>4311527834815</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45">
         <v>129</v>
       </c>
-      <c r="G45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4311532307052</v>
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="2">
         <v>4311532307052</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46">
         <v>249</v>
       </c>
-      <c r="G46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4311527582808</v>
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
       </c>
       <c r="C47" s="2">
         <v>4311527582808</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47">
         <v>111</v>
       </c>
-      <c r="G47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2815</v>
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
       <c r="C48" s="2">
         <v>2815</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>34</v>
       </c>
-      <c r="G48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4311501010037</v>
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
       </c>
       <c r="C49" s="2">
         <v>4311501010037</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>109</v>
       </c>
-      <c r="G49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4311501041727</v>
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
       </c>
       <c r="C50" s="2">
         <v>4311501041727</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>199</v>
       </c>
-      <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4000140702846</v>
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <v>4000140702846</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <v>158</v>
       </c>
-      <c r="G51" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1230000068017</v>
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
       </c>
       <c r="C52" s="2">
         <v>1230000068017</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52">
         <v>399</v>
       </c>
-      <c r="G52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4005906133711</v>
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
       </c>
       <c r="C53" s="2">
         <v>4005906133711</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53">
         <v>649</v>
       </c>
-      <c r="G53" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4033962005208</v>
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
       <c r="C54" s="2">
         <v>4033962005208</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54">
         <v>249</v>
       </c>
-      <c r="G54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2">
-        <v>4000140714757</v>
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
       </c>
       <c r="C55" s="2">
         <v>4000140714757</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55">
         <v>158</v>
       </c>
-      <c r="G55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
-        <v>4311501006016</v>
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
       </c>
       <c r="C56" s="2">
         <v>4311501006016</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <v>229</v>
       </c>
-      <c r="G56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2">
-        <v>4008239585998</v>
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
       </c>
       <c r="C57" s="2">
         <v>4008239585998</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57">
         <v>229</v>
       </c>
-      <c r="G57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4000140702501</v>
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
       </c>
       <c r="C58" s="2">
         <v>4000140702501</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58">
         <v>79</v>
       </c>
-      <c r="G58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4102560081515</v>
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
       </c>
       <c r="C59" s="2">
         <v>4102560081515</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59">
         <v>78</v>
       </c>
-      <c r="G59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2">
-        <v>4311501050347</v>
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
       </c>
       <c r="C60" s="2">
         <v>4311501050347</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60">
         <v>259</v>
       </c>
-      <c r="G60" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4000405002841</v>
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
       </c>
       <c r="C61" s="2">
         <v>4000405002841</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61">
         <v>329</v>
       </c>
-      <c r="G61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5449000000897</v>
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
       </c>
       <c r="C62" s="2">
         <v>5449000000897</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62">
         <v>270</v>
       </c>
-      <c r="G62" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="2">
-        <v>4001724045588</v>
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
       </c>
       <c r="C63" s="2">
         <v>4001724045588</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63">
         <v>447</v>
       </c>
-      <c r="G63" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="2">
-        <v>9002490257415</v>
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
       </c>
       <c r="C64" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1">
         <v>1188</v>
       </c>
-      <c r="G64" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>1</v>
-      </c>
-      <c r="B65" s="2">
-        <v>4311501038000</v>
       </c>
       <c r="C65" s="2">
         <v>4311501038000</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>129</v>
       </c>
-      <c r="G65" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
         <v>1</v>
-      </c>
-      <c r="B66" s="2">
-        <v>9002859063374</v>
       </c>
       <c r="C66" s="2">
         <v>9002859063374</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66">
         <v>269</v>
       </c>
-      <c r="G66" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
         <v>1</v>
-      </c>
-      <c r="B67" s="2">
-        <v>8710243909900</v>
       </c>
       <c r="C67" s="2">
         <v>8710243909900</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <v>199</v>
       </c>
-      <c r="G67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>1</v>
-      </c>
-      <c r="B68" s="2">
-        <v>9002490257415</v>
       </c>
       <c r="C68" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68">
         <v>556</v>
       </c>
-      <c r="G68" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
         <v>1</v>
-      </c>
-      <c r="B69" s="2">
-        <v>4311501005330</v>
       </c>
       <c r="C69" s="2">
         <v>4311501005330</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>199</v>
       </c>
-      <c r="G69" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
         <v>1</v>
-      </c>
-      <c r="B70" s="2">
-        <v>4311501038031</v>
       </c>
       <c r="C70" s="2">
         <v>4311501038031</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>129</v>
       </c>
-      <c r="G70" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
         <v>1</v>
-      </c>
-      <c r="B71" s="2">
-        <v>4002468084000</v>
       </c>
       <c r="C71" s="2">
         <v>4002468084000</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71">
         <v>99</v>
       </c>
-      <c r="G71" t="s">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>1</v>
-      </c>
-      <c r="B72" s="2">
-        <v>8710243909962</v>
       </c>
       <c r="C72" s="2">
         <v>8710243909962</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>199</v>
       </c>
-      <c r="G72" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="2">
-        <v>90433627</v>
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
       </c>
       <c r="C73" s="2">
         <v>90433627</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73">
         <v>278</v>
       </c>
-      <c r="G73" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="2">
-        <v>4311501010037</v>
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
       </c>
       <c r="C74" s="2">
         <v>4311501010037</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74">
         <v>109</v>
       </c>
-      <c r="G74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4000405004982</v>
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
       </c>
       <c r="C75" s="2">
         <v>4000405004982</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75">
         <v>159</v>
       </c>
-      <c r="G75" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="2">
-        <v>4000140714757</v>
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
       </c>
       <c r="C76" s="2">
         <v>4000140714757</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <v>109</v>
       </c>
-      <c r="G76" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="2">
-        <v>4311501621615</v>
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
       </c>
       <c r="C77" s="2">
         <v>4311501621615</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77">
         <v>199</v>
       </c>
-      <c r="G77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="2">
-        <v>8002270596803</v>
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="2">
         <v>8002270596803</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78">
         <v>119</v>
       </c>
-      <c r="G78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="2">
-        <v>4000140702846</v>
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
       </c>
       <c r="C79" s="2">
         <v>4000140702846</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>109</v>
       </c>
-      <c r="G79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>4260444962807</v>
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
       </c>
       <c r="C80" s="2">
         <v>4260444962807</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>249</v>
       </c>
-      <c r="G80" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4311501741689</v>
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
       </c>
       <c r="C81" s="2">
         <v>4311501741689</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>199</v>
       </c>
-      <c r="G81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="2">
-        <v>4311501601693</v>
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
       </c>
       <c r="C82" s="2">
         <v>4311501601693</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82">
         <v>79</v>
       </c>
-      <c r="G82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="2">
-        <v>4008452036130</v>
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
       </c>
       <c r="C83" s="2">
         <v>4008452036130</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>169</v>
       </c>
-      <c r="G83" t="s">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="2">
-        <v>4311501011171</v>
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
       </c>
       <c r="C84" s="2">
         <v>4311501011171</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F84">
         <v>159</v>
       </c>
-      <c r="G84" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2">
-        <v>4311501006184</v>
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
       </c>
       <c r="C85" s="2">
         <v>4311501006184</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>79</v>
       </c>
-      <c r="G85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>90433627</v>
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
       </c>
       <c r="C86" s="2">
         <v>90433627</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>278</v>
       </c>
-      <c r="G86" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="2">
-        <v>4311501072851</v>
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
       </c>
       <c r="C87" s="2">
         <v>4311501072851</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87">
         <v>99</v>
       </c>
-      <c r="G87" t="s">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" s="2">
-        <v>4311501452509</v>
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
       </c>
       <c r="C88" s="2">
         <v>4311501452509</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F88">
         <v>299</v>
       </c>
-      <c r="G88" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="2">
-        <v>5410126726015</v>
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
       </c>
       <c r="C89" s="2">
         <v>5410126726015</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F89">
         <v>398</v>
       </c>
-      <c r="G89" t="s">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="2">
-        <v>5410126726954</v>
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
       </c>
       <c r="C90" s="2">
         <v>5410126726954</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F90">
         <v>359</v>
       </c>
-      <c r="G90" t="s">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="2">
-        <v>4311501601723</v>
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
       </c>
       <c r="C91" s="2">
         <v>4311501601723</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91">
         <v>135</v>
       </c>
-      <c r="G91" t="s">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="2">
-        <v>4311527286898</v>
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
       </c>
       <c r="C92" s="2">
         <v>4311527286898</v>
       </c>
       <c r="D92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92">
         <v>79</v>
       </c>
-      <c r="G92" t="s">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="2">
-        <v>4099498000292</v>
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
       </c>
       <c r="C93" s="2">
         <v>4099498000292</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>159</v>
       </c>
-      <c r="G93" t="s">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2">
-        <v>4019467470703</v>
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
       </c>
       <c r="C94" s="2">
         <v>4019467470703</v>
       </c>
       <c r="D94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F94">
         <v>149</v>
       </c>
-      <c r="G94" t="s">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2">
-        <v>4311596447510</v>
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
       </c>
       <c r="C95" s="2">
         <v>4311596447510</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="G95" t="s">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>4311532332290</v>
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
       </c>
       <c r="C96" s="2">
         <v>4311532332290</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F96">
         <v>299</v>
       </c>
-      <c r="G96" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="2">
-        <v>4099936001034</v>
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
       </c>
       <c r="C97" s="2">
         <v>4099936001034</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>99</v>
       </c>
-      <c r="G97" t="s">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="2">
-        <v>4034900011244</v>
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
       </c>
       <c r="C98" s="2">
         <v>4034900011244</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>199</v>
       </c>
-      <c r="G98" t="s">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" s="2">
-        <v>4311501740408</v>
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
       </c>
       <c r="C99" s="2">
         <v>4311501740408</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F99">
         <v>499</v>
       </c>
-      <c r="G99" t="s">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="2">
-        <v>4311501679753</v>
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>93</v>
       </c>
       <c r="C100" s="2">
         <v>4311501679753</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100">
         <v>158</v>
       </c>
-      <c r="G100" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="2">
-        <v>4311501513149</v>
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
       </c>
       <c r="C101" s="2">
         <v>4311501513149</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>199</v>
       </c>
-      <c r="G101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" s="2">
-        <v>4311501601693</v>
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
       </c>
       <c r="C102" s="2">
         <v>4311501601693</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102">
         <v>237</v>
       </c>
-      <c r="G102" t="s">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="2">
-        <v>2390</v>
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
       </c>
       <c r="C103" s="2">
         <v>2390</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F103">
         <v>237</v>
       </c>
-      <c r="G103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="2">
-        <v>2001</v>
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>93</v>
       </c>
       <c r="C104" s="2">
         <v>2001</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F104">
         <v>206</v>
       </c>
-      <c r="G104" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="2">
-        <v>5202258025896</v>
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
       </c>
       <c r="C105" s="2">
         <v>5202258025896</v>
       </c>
       <c r="D105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F105">
         <v>378</v>
       </c>
-      <c r="G105" t="s">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="2">
-        <v>4311501445624</v>
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>93</v>
       </c>
       <c r="C106" s="2">
         <v>4311501445624</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F106">
         <v>349</v>
       </c>
-      <c r="G106" t="s">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" s="2">
-        <v>4045800571264</v>
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
       </c>
       <c r="C107" s="2">
         <v>4045800571264</v>
       </c>
       <c r="D107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107">
         <v>119</v>
       </c>
-      <c r="G107" t="s">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="2">
-        <v>3280222312076</v>
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
       </c>
       <c r="C108" s="2">
         <v>3280222312076</v>
       </c>
       <c r="D108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108">
         <v>199</v>
       </c>
-      <c r="G108" t="s">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>94</v>
-      </c>
-      <c r="B109" s="2">
-        <v>4311501434031</v>
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
       </c>
       <c r="C109" s="2">
         <v>4311501434031</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F109">
         <v>119</v>
       </c>
-      <c r="G109" t="s">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>94</v>
-      </c>
-      <c r="B110" s="2">
-        <v>4005906133506</v>
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
       </c>
       <c r="C110" s="2">
         <v>4005906133506</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110">
         <v>749</v>
       </c>
-      <c r="G110" t="s">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B111" s="2">
-        <v>4311501765852</v>
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
       </c>
       <c r="C111" s="2">
         <v>4311501765852</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111">
         <v>99</v>
       </c>
-      <c r="G111" t="s">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="2">
-        <v>4000405001394</v>
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>93</v>
       </c>
       <c r="C112" s="2">
         <v>4000405001394</v>
       </c>
       <c r="D112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F112">
         <v>189</v>
       </c>
-      <c r="G112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>94</v>
-      </c>
-      <c r="B113" s="2">
-        <v>4099498000292</v>
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>93</v>
       </c>
       <c r="C113" s="2">
         <v>4099498000292</v>
       </c>
       <c r="D113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F113">
         <v>159</v>
       </c>
-      <c r="G113" t="s">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>94</v>
-      </c>
-      <c r="B114" s="2">
-        <v>4009249050766</v>
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>93</v>
       </c>
       <c r="C114" s="2">
         <v>4009249050766</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F114">
         <v>219</v>
       </c>
-      <c r="G114" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="2">
-        <v>2909</v>
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
       </c>
       <c r="C115" s="2">
         <v>2909</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115">
         <v>33</v>
       </c>
-      <c r="G115" t="s">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>94</v>
-      </c>
-      <c r="B116" s="2">
-        <v>4260452960802</v>
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>93</v>
       </c>
       <c r="C116" s="2">
         <v>4260452960802</v>
       </c>
       <c r="D116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F116">
         <v>30</v>
       </c>
-      <c r="G116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>94</v>
-      </c>
-      <c r="B117" s="2">
-        <v>4311501004043</v>
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>93</v>
       </c>
       <c r="C117" s="2">
         <v>4311501004043</v>
       </c>
       <c r="D117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117">
         <v>199</v>
       </c>
-      <c r="G117" t="s">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>94</v>
-      </c>
-      <c r="B118" s="2">
-        <v>2810</v>
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
       </c>
       <c r="C118" s="2">
         <v>2810</v>
       </c>
       <c r="D118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F118">
         <v>146</v>
       </c>
-      <c r="G118" t="s">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" s="2">
-        <v>4008577020823</v>
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
       </c>
       <c r="C119" s="2">
         <v>4008577020823</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119">
         <v>549</v>
       </c>
-      <c r="G119" t="s">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2">
-        <v>94001112</v>
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>117</v>
       </c>
       <c r="C120" s="2">
         <v>94001112</v>
       </c>
       <c r="D120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F120">
         <v>200</v>
       </c>
-      <c r="G120" t="s">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="2">
-        <v>4002334110321</v>
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>117</v>
       </c>
       <c r="C121" s="2">
         <v>4002334110321</v>
       </c>
       <c r="D121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121">
         <v>99</v>
       </c>
-      <c r="G121" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" s="2">
-        <v>5411188112709</v>
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
       </c>
       <c r="C122" s="2">
         <v>5411188112709</v>
       </c>
       <c r="D122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F122">
         <v>299</v>
       </c>
-      <c r="G122" t="s">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" s="2">
-        <v>8714789732886</v>
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>117</v>
       </c>
       <c r="C123" s="2">
         <v>8714789732886</v>
       </c>
       <c r="D123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123">
         <v>135</v>
       </c>
-      <c r="G123" t="s">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="2">
-        <v>4311501678305</v>
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>117</v>
       </c>
       <c r="C124" s="2">
         <v>4311501678305</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F124">
         <v>85</v>
       </c>
-      <c r="G124" t="s">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="2">
-        <v>4311501601723</v>
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>117</v>
       </c>
       <c r="C125" s="2">
         <v>4311501601723</v>
       </c>
       <c r="D125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125">
         <v>135</v>
       </c>
-      <c r="G125" t="s">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="2">
-        <v>195161227042</v>
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>117</v>
       </c>
       <c r="C126" s="2">
         <v>195161227042</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F126" s="1">
         <v>2699</v>
       </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="2">
-        <v>4008137002238</v>
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
       </c>
       <c r="C127" s="2">
         <v>4008137002238</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F127">
         <v>125</v>
       </c>
-      <c r="G127" t="s">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="2">
-        <v>8720181302053</v>
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>117</v>
       </c>
       <c r="C128" s="2">
         <v>8720181302053</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128">
         <v>345</v>
       </c>
-      <c r="G128" t="s">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" s="2">
-        <v>4000446011413</v>
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
       </c>
       <c r="C129" s="2">
         <v>4000446011413</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F129">
         <v>229</v>
       </c>
-      <c r="G129" t="s">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2">
-        <v>90453885</v>
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
       </c>
       <c r="C130" s="2">
         <v>90453885</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F130">
         <v>139</v>
       </c>
-      <c r="G130" t="s">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" s="2">
-        <v>9002490257415</v>
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>127</v>
       </c>
       <c r="C131" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F131">
         <v>556</v>
       </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2">
-        <v>90453885</v>
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>129</v>
       </c>
       <c r="C132" s="2">
         <v>90453885</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132">
         <v>139</v>
       </c>
-      <c r="G132" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" s="2">
-        <v>5060335635228</v>
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>129</v>
       </c>
       <c r="C133" s="2">
         <v>5060335635228</v>
       </c>
       <c r="D133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F133">
         <v>596</v>
       </c>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>130</v>
-      </c>
-      <c r="B134" s="2">
-        <v>9002490257415</v>
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
       </c>
       <c r="C134" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1">
         <v>1112</v>
       </c>
-      <c r="G134" t="s">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" s="2">
-        <v>4005906003502</v>
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>129</v>
       </c>
       <c r="C135" s="2">
         <v>4005906003502</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F135">
         <v>138</v>
       </c>
-      <c r="G135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="2">
-        <v>7322540973372</v>
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>132</v>
       </c>
       <c r="C136" s="2">
         <v>7322540973372</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F136">
         <v>249</v>
       </c>
-      <c r="G136" t="s">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>133</v>
-      </c>
-      <c r="B137" s="2">
-        <v>8000500384718</v>
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>132</v>
       </c>
       <c r="C137" s="2">
         <v>8000500384718</v>
       </c>
       <c r="D137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F137">
         <v>598</v>
       </c>
-      <c r="G137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>133</v>
-      </c>
-      <c r="B138" s="2">
-        <v>4311501072851</v>
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
       </c>
       <c r="C138" s="2">
         <v>4311501072851</v>
       </c>
       <c r="D138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F138">
         <v>95</v>
       </c>
-      <c r="G138" t="s">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="2">
-        <v>5060335635228</v>
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>132</v>
       </c>
       <c r="C139" s="2">
         <v>5060335635228</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F139">
         <v>298</v>
       </c>
-      <c r="G139" t="s">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="2">
-        <v>8711327623057</v>
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>132</v>
       </c>
       <c r="C140" s="2">
         <v>8711327623057</v>
       </c>
       <c r="D140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F140">
         <v>399</v>
       </c>
-      <c r="G140" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141" s="2">
-        <v>4009044316425</v>
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>132</v>
       </c>
       <c r="C141" s="2">
         <v>4009044316425</v>
       </c>
       <c r="D141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F141">
         <v>30</v>
       </c>
-      <c r="G141" t="s">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="2">
-        <v>4311501720745</v>
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>132</v>
       </c>
       <c r="C142" s="2">
         <v>4311501720745</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F142">
         <v>135</v>
       </c>
-      <c r="G142" t="s">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="2">
-        <v>9002490257415</v>
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>132</v>
       </c>
       <c r="C143" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D143" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F143">
         <v>556</v>
       </c>
-      <c r="G143" t="s">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="2">
-        <v>5029053575193</v>
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>132</v>
       </c>
       <c r="C144" s="2">
         <v>5029053575193</v>
       </c>
       <c r="D144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F144">
         <v>165</v>
       </c>
-      <c r="G144" t="s">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>140</v>
-      </c>
-      <c r="B145" s="2">
-        <v>4014400918021</v>
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>139</v>
       </c>
       <c r="C145" s="2">
         <v>4014400918021</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F145">
         <v>149</v>
       </c>
-      <c r="G145" t="s">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>140</v>
-      </c>
-      <c r="B146" s="2">
-        <v>4260545852984</v>
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>139</v>
       </c>
       <c r="C146" s="2">
         <v>4260545852984</v>
       </c>
       <c r="D146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F146">
         <v>169</v>
       </c>
-      <c r="G146" t="s">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>140</v>
-      </c>
-      <c r="B147" s="2">
-        <v>4001518104064</v>
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
       </c>
       <c r="C147" s="2">
         <v>4001518104064</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F147">
         <v>139</v>
       </c>
-      <c r="G147" t="s">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>140</v>
-      </c>
-      <c r="B148" s="2">
-        <v>8000070027411</v>
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>139</v>
       </c>
       <c r="C148" s="2">
         <v>8000070027411</v>
       </c>
       <c r="D148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1">
         <v>1099</v>
       </c>
-      <c r="G148" t="s">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" s="2">
-        <v>5411188110835</v>
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>139</v>
       </c>
       <c r="C149" s="2">
         <v>5411188110835</v>
       </c>
       <c r="D149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F149">
         <v>199</v>
       </c>
-      <c r="G149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>140</v>
-      </c>
-      <c r="B150" s="2">
-        <v>4005906133506</v>
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>139</v>
       </c>
       <c r="C150" s="2">
         <v>4005906133506</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F150">
         <v>749</v>
       </c>
-      <c r="G150" t="s">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>140</v>
-      </c>
-      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="2">
         <v>132081</v>
       </c>
-      <c r="C151" s="2">
-        <v>2224180000000</v>
-      </c>
       <c r="D151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F151">
         <v>173</v>
       </c>
-      <c r="G151" t="s">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>140</v>
-      </c>
-      <c r="B152" s="2">
-        <v>5411188112709</v>
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>139</v>
       </c>
       <c r="C152" s="2">
         <v>5411188112709</v>
       </c>
       <c r="D152" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152">
         <v>199</v>
       </c>
-      <c r="G152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>140</v>
-      </c>
-      <c r="B153" s="2">
-        <v>4022813198503</v>
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>139</v>
       </c>
       <c r="C153" s="2">
         <v>4022813198503</v>
       </c>
       <c r="D153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F153">
         <v>179</v>
       </c>
-      <c r="G153" t="s">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>140</v>
-      </c>
-      <c r="B154" s="2">
-        <v>8022508003149</v>
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
       </c>
       <c r="C154" s="2">
         <v>8022508003149</v>
       </c>
       <c r="D154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F154" s="1">
         <v>1399</v>
       </c>
-      <c r="G154" t="s">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>140</v>
-      </c>
-      <c r="B155" s="2">
-        <v>4011800399719</v>
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>139</v>
       </c>
       <c r="C155" s="2">
         <v>4011800399719</v>
       </c>
       <c r="D155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F155">
         <v>279</v>
       </c>
-      <c r="G155" t="s">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>140</v>
-      </c>
-      <c r="B156" s="2">
-        <v>4008400621722</v>
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>139</v>
       </c>
       <c r="C156" s="2">
         <v>4008400621722</v>
       </c>
       <c r="D156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F156">
         <v>269</v>
       </c>
-      <c r="G156" t="s">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>140</v>
-      </c>
-      <c r="B157" s="2">
-        <v>4260545850102</v>
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>139</v>
       </c>
       <c r="C157" s="2">
         <v>4260545850102</v>
       </c>
       <c r="D157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F157">
         <v>169</v>
       </c>
-      <c r="G157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>140</v>
-      </c>
-      <c r="B158" s="2">
-        <v>4045357001986</v>
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>139</v>
       </c>
       <c r="C158" s="2">
         <v>4045357001986</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F158">
         <v>199</v>
       </c>
-      <c r="G158" t="s">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>140</v>
-      </c>
-      <c r="B159" s="2">
-        <v>5054563038708</v>
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
       </c>
       <c r="C159" s="2">
         <v>5054563038708</v>
       </c>
       <c r="D159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F159">
         <v>245</v>
       </c>
-      <c r="G159" t="s">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>140</v>
-      </c>
-      <c r="B160" s="2">
-        <v>4014400931785</v>
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>139</v>
       </c>
       <c r="C160" s="2">
         <v>4014400931785</v>
       </c>
       <c r="D160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F160">
         <v>159</v>
       </c>
-      <c r="G160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>140</v>
-      </c>
-      <c r="B161" s="2">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" s="2">
         <v>152505</v>
       </c>
-      <c r="C161" s="2">
-        <v>2257800000000</v>
-      </c>
       <c r="D161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F161">
         <v>387</v>
       </c>
-      <c r="G161" t="s">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>140</v>
-      </c>
-      <c r="B162" s="2">
-        <v>2660</v>
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>139</v>
       </c>
       <c r="C162" s="2">
         <v>2660</v>
       </c>
       <c r="D162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F162">
         <v>31</v>
       </c>
-      <c r="G162" t="s">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>140</v>
-      </c>
-      <c r="B163" s="2">
-        <v>4260545850027</v>
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>139</v>
       </c>
       <c r="C163" s="2">
         <v>4260545850027</v>
       </c>
       <c r="D163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F163">
         <v>169</v>
       </c>
-      <c r="G163" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>140</v>
-      </c>
-      <c r="B164" s="2">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>139</v>
+      </c>
+      <c r="C164" s="2">
         <v>154210</v>
       </c>
-      <c r="C164" s="2">
-        <v>2201560000000</v>
-      </c>
       <c r="D164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F164">
         <v>450</v>
       </c>
-      <c r="G164" t="s">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" s="2">
+        <v>155019</v>
+      </c>
+      <c r="D165" t="s">
         <v>156</v>
       </c>
-      <c r="B165" s="2">
-        <v>155019</v>
-      </c>
-      <c r="C165" s="2">
-        <v>2237590000000</v>
-      </c>
-      <c r="D165" t="s">
-        <v>157</v>
-      </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F165">
         <v>374</v>
       </c>
-      <c r="G165" t="s">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>156</v>
-      </c>
-      <c r="B166" s="2">
-        <v>4000405005415</v>
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>155</v>
       </c>
       <c r="C166" s="2">
         <v>4000405005415</v>
       </c>
       <c r="D166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F166">
         <v>159</v>
       </c>
-      <c r="G166" t="s">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>156</v>
-      </c>
-      <c r="B167" s="2">
-        <v>4005906133711</v>
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>155</v>
       </c>
       <c r="C167" s="2">
         <v>4005906133711</v>
       </c>
       <c r="D167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F167">
         <v>549</v>
       </c>
-      <c r="G167" t="s">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>156</v>
-      </c>
-      <c r="B168" s="2">
-        <v>9002490257415</v>
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>155</v>
       </c>
       <c r="C168" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F168">
         <v>556</v>
       </c>
-      <c r="G168" t="s">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>156</v>
-      </c>
-      <c r="B169" s="2">
-        <v>4045357001986</v>
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>155</v>
       </c>
       <c r="C169" s="2">
         <v>4045357001986</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F169">
         <v>199</v>
       </c>
-      <c r="G169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>156</v>
-      </c>
-      <c r="B170" s="2">
-        <v>4000405001394</v>
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>155</v>
       </c>
       <c r="C170" s="2">
         <v>4000405001394</v>
       </c>
       <c r="D170" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F170">
         <v>189</v>
       </c>
-      <c r="G170" t="s">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>156</v>
-      </c>
-      <c r="B171" s="2">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>155</v>
+      </c>
+      <c r="C171" s="2">
         <v>154210</v>
       </c>
-      <c r="C171" s="2">
-        <v>2201560000000</v>
-      </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F171">
         <v>429</v>
       </c>
-      <c r="G171" t="s">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>159</v>
-      </c>
-      <c r="B172" s="2">
-        <v>4015000971836</v>
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>158</v>
       </c>
       <c r="C172" s="2">
         <v>4015000971836</v>
       </c>
       <c r="D172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F172">
         <v>275</v>
       </c>
-      <c r="G172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B173" s="2">
-        <v>4311501718384</v>
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>158</v>
       </c>
       <c r="C173" s="2">
         <v>4311501718384</v>
       </c>
       <c r="D173" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F173">
         <v>275</v>
       </c>
-      <c r="G173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>159</v>
-      </c>
-      <c r="B174" s="2">
-        <v>4001518104064</v>
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>158</v>
       </c>
       <c r="C174" s="2">
         <v>4001518104064</v>
       </c>
       <c r="D174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F174">
         <v>139</v>
       </c>
-      <c r="G174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>159</v>
-      </c>
-      <c r="B175" s="2">
-        <v>4005906133506</v>
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>158</v>
       </c>
       <c r="C175" s="2">
         <v>4005906133506</v>
       </c>
       <c r="D175" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F175">
         <v>749</v>
       </c>
-      <c r="G175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>159</v>
-      </c>
-      <c r="B176" s="2">
-        <v>5029053575193</v>
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>158</v>
       </c>
       <c r="C176" s="2">
         <v>5029053575193</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F176">
         <v>165</v>
       </c>
-      <c r="G176" t="s">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>159</v>
-      </c>
-      <c r="B177" s="2">
-        <v>4311501437575</v>
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>158</v>
       </c>
       <c r="C177" s="2">
         <v>4311501437575</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F177">
         <v>179</v>
       </c>
-      <c r="G177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>159</v>
-      </c>
-      <c r="B178" s="2">
-        <v>5202178009495</v>
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>158</v>
       </c>
       <c r="C178" s="2">
         <v>5202178009495</v>
       </c>
       <c r="D178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F178">
         <v>199</v>
       </c>
-      <c r="G178" t="s">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>159</v>
-      </c>
-      <c r="B179" s="2">
-        <v>4015000971157</v>
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>158</v>
       </c>
       <c r="C179" s="2">
         <v>4015000971157</v>
       </c>
       <c r="D179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F179">
         <v>275</v>
       </c>
-      <c r="G179" t="s">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>159</v>
-      </c>
-      <c r="B180" s="2">
-        <v>4311501498835</v>
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>158</v>
       </c>
       <c r="C180" s="2">
         <v>4311501498835</v>
       </c>
       <c r="D180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F180">
         <v>278</v>
       </c>
-      <c r="G180" t="s">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>165</v>
-      </c>
-      <c r="B181" s="2">
-        <v>4311532347096</v>
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>164</v>
       </c>
       <c r="C181" s="2">
         <v>4311532347096</v>
       </c>
       <c r="D181" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F181">
         <v>49</v>
       </c>
-      <c r="G181" t="s">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>165</v>
-      </c>
-      <c r="B182" s="2">
-        <v>4311501046159</v>
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>164</v>
       </c>
       <c r="C182" s="2">
         <v>4311501046159</v>
       </c>
       <c r="D182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F182">
         <v>198</v>
       </c>
-      <c r="G182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>165</v>
-      </c>
-      <c r="B183" s="2">
-        <v>4045800202250</v>
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>164</v>
       </c>
       <c r="C183" s="2">
         <v>4045800202250</v>
       </c>
       <c r="D183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F183">
         <v>189</v>
       </c>
-      <c r="G183" t="s">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>165</v>
-      </c>
-      <c r="B184" s="2">
-        <v>4311596457960</v>
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>164</v>
       </c>
       <c r="C184" s="2">
         <v>4311596457960</v>
       </c>
       <c r="D184" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F184">
         <v>89</v>
       </c>
-      <c r="G184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>165</v>
-      </c>
-      <c r="B185" s="2">
-        <v>4311501046203</v>
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>164</v>
       </c>
       <c r="C185" s="2">
         <v>4311501046203</v>
       </c>
       <c r="D185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F185">
         <v>99</v>
       </c>
-      <c r="G185" t="s">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>165</v>
-      </c>
-      <c r="B186" s="2">
-        <v>4311532395042</v>
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>164</v>
       </c>
       <c r="C186" s="2">
         <v>4311532395042</v>
       </c>
       <c r="D186" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F186">
         <v>199</v>
       </c>
-      <c r="G186" t="s">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>165</v>
-      </c>
-      <c r="B187" s="2">
-        <v>2606</v>
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>164</v>
       </c>
       <c r="C187" s="2">
         <v>2606</v>
       </c>
       <c r="D187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F187">
         <v>79</v>
       </c>
-      <c r="G187" t="s">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>165</v>
-      </c>
-      <c r="B188" s="2">
-        <v>5711953109720</v>
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>164</v>
       </c>
       <c r="C188" s="2">
         <v>5711953109720</v>
       </c>
       <c r="D188" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F188">
         <v>249</v>
       </c>
-      <c r="G188" t="s">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>165</v>
-      </c>
-      <c r="B189" s="2">
-        <v>4001518104064</v>
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>164</v>
       </c>
       <c r="C189" s="2">
         <v>4001518104064</v>
       </c>
       <c r="D189" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F189">
         <v>278</v>
       </c>
-      <c r="G189" t="s">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>165</v>
-      </c>
-      <c r="B190" s="2">
-        <v>4260452960802</v>
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>164</v>
       </c>
       <c r="C190" s="2">
         <v>4260452960802</v>
       </c>
       <c r="D190" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F190">
         <v>30</v>
       </c>
-      <c r="G190" t="s">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>165</v>
-      </c>
-      <c r="B191" s="2">
-        <v>4000503104409</v>
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>164</v>
       </c>
       <c r="C191" s="2">
         <v>4000503104409</v>
       </c>
       <c r="D191" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F191">
         <v>299</v>
       </c>
-      <c r="G191" t="s">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>165</v>
-      </c>
-      <c r="B192" s="2">
-        <v>4311501038031</v>
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>164</v>
       </c>
       <c r="C192" s="2">
         <v>4311501038031</v>
       </c>
       <c r="D192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F192">
         <v>238</v>
       </c>
-      <c r="G192" t="s">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>165</v>
-      </c>
-      <c r="B193" s="2">
-        <v>4311527639045</v>
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>164</v>
       </c>
       <c r="C193" s="2">
         <v>4311527639045</v>
       </c>
       <c r="D193" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F193">
         <v>199</v>
       </c>
-      <c r="G193" t="s">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>174</v>
-      </c>
-      <c r="B194" s="2">
-        <v>4005906133711</v>
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>173</v>
       </c>
       <c r="C194" s="2">
         <v>4005906133711</v>
       </c>
       <c r="D194" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F194">
         <v>649</v>
       </c>
-      <c r="G194" t="s">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>174</v>
-      </c>
-      <c r="B195" s="2">
-        <v>4036300150837</v>
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>173</v>
       </c>
       <c r="C195" s="2">
         <v>4036300150837</v>
       </c>
       <c r="D195" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F195">
         <v>149</v>
       </c>
-      <c r="G195" t="s">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>174</v>
-      </c>
-      <c r="B196" s="2">
-        <v>8001010108498</v>
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>173</v>
       </c>
       <c r="C196" s="2">
         <v>8001010108498</v>
       </c>
       <c r="D196" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F196">
         <v>279</v>
       </c>
-      <c r="G196" t="s">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>174</v>
-      </c>
-      <c r="B197" s="2">
-        <v>42201885</v>
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>173</v>
       </c>
       <c r="C197" s="2">
         <v>42201885</v>
       </c>
       <c r="D197" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F197">
         <v>159</v>
       </c>
-      <c r="G197" t="s">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>174</v>
-      </c>
-      <c r="B198" s="2">
-        <v>4311501072851</v>
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>173</v>
       </c>
       <c r="C198" s="2">
         <v>4311501072851</v>
       </c>
       <c r="D198" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F198">
         <v>570</v>
       </c>
-      <c r="G198" t="s">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B199" s="2">
-        <v>4008577006872</v>
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>173</v>
       </c>
       <c r="C199" s="2">
         <v>4008577006872</v>
       </c>
       <c r="D199" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F199">
         <v>399</v>
       </c>
-      <c r="G199" t="s">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>174</v>
-      </c>
-      <c r="B200" s="2">
-        <v>9002490257415</v>
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>173</v>
       </c>
       <c r="C200" s="2">
         <v>9002490257415</v>
       </c>
       <c r="D200" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F200">
         <v>556</v>
       </c>
-      <c r="G200" t="s">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" s="2">
-        <v>4311501038031</v>
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>173</v>
       </c>
       <c r="C201" s="2">
         <v>4311501038031</v>
       </c>
       <c r="D201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F201">
         <v>119</v>
       </c>
-      <c r="G201" t="s">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H201" xr:uid="{E45A4E82-583F-47AB-86A1-901052440CCE}"/>
+  <autoFilter ref="A1:F201" xr:uid="{E45A4E82-583F-47AB-86A1-901052440CCE}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>